--- a/biology/Microbiologie/Aquaspirillum_soli/Aquaspirillum_soli.xlsx
+++ b/biology/Microbiologie/Aquaspirillum_soli/Aquaspirillum_soli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquaspirillum soli est espèce de bactérie du genre Aquaspirillum. Ce sont des bactéries à gram négatif aérobies de forme spirallée.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aquaspirillum soli a été classée dans le genre Aquasipirillum décrit depuis 1973[2]sur la base de sa composition en bases GC, sa morphologie, ses caractéristiques générales, de l'hybridation ADN-ADN et de sa séquence nucléotidique de l'ARNr 16S[1].
-Étymologie
-L'étymologie du nom de genre Aquaspirillum est basée sur le mot aqua et se résume ainsi : A.qua.spi.ril.lum. L. fem. n. aqua, eau; Gr. fem. n. speîra, une spiralle; N.L. neut. dim. n. spirillum, une petite spiralle; N.L. neut. dim. n. Aquaspirillum, une petite spiralle aquatique[3]. L'étymologie de l'épithète caractéristique de cette espèce est so’li. L. gen. neut. n. soli, de sol car la souche type a été isolé du sol[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aquaspirillum soli a été classée dans le genre Aquasipirillum décrit depuis 1973sur la base de sa composition en bases GC, sa morphologie, ses caractéristiques générales, de l'hybridation ADN-ADN et de sa séquence nucléotidique de l'ARNr 16S.
 </t>
         </is>
       </c>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Aquaspirillum est basée sur le mot aqua et se résume ainsi : A.qua.spi.ril.lum. L. fem. n. aqua, eau; Gr. fem. n. speîra, une spiralle; N.L. neut. dim. n. spirillum, une petite spiralle; N.L. neut. dim. n. Aquaspirillum, une petite spiralle aquatique. L'étymologie de l'épithète caractéristique de cette espèce est so’li. L. gen. neut. n. soli, de sol car la souche type a été isolé du sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aquaspirillum_soli</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquaspirillum_soli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de cette espèce a été isolée du sol d'un étang de roseaux à Shangqiu, dans la province du Henan (Chine)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de cette espèce a été isolée du sol d'un étang de roseaux à Shangqiu, dans la province du Henan (Chine).
 </t>
         </is>
       </c>
